--- a/ApplicationCode/subscriberlist.xlsx
+++ b/ApplicationCode/subscriberlist.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,8 +823,135 @@
           <t>12345678</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>zfez</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GRRDF</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>try</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ezsd</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ghb</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>KJ.N</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>rz</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>12234567</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>TRTG</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Option 1</t>
         </is>

--- a/ApplicationCode/subscriberlist.xlsx
+++ b/ApplicationCode/subscriberlist.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,6 +957,253 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>mohamed</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>bzeouich</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>00000000</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>97487999</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MOKNINE</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mohamed</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>bzeouich</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>00000001</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>97979797</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MOK</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Option 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>med</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>bz</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>00000000</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>97487999</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Option 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">marien </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>bzeouich</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>14141414</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>97090907</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>/S</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Option 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hff</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>GF</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>لؤب</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>رلا</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>12345677</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12345666</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>نحل</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vb</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>jh</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12345671</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Option 1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ApplicationCode/subscriberlist.xlsx
+++ b/ApplicationCode/subscriberlist.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,10 +1197,41 @@
           <t>12345678</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
           <t>Option 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>zdz</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>4RE</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>الماشية</t>
         </is>
       </c>
     </row>

--- a/ApplicationCode/subscriberlist.xlsx
+++ b/ApplicationCode/subscriberlist.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1235,6 +1235,230 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ERE</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>14000000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>98625905</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>GRG</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>السقوي</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>22334455</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>الصيد بالأضواء</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>jjj</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>jjj</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>TGFF</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>الماشية</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>UUUU</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>YYYY</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>12335511</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11223344</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>HHH</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>الصيد الساحلي</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ggf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>32323323</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>السقوي</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RRR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CGG</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>rrrr</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>الزياتين</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DDD</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>12121212</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12121212</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>FFF</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>الصيد بالأضواء</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ApplicationCode/subscriberlist.xlsx
+++ b/ApplicationCode/subscriberlist.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1459,6 +1459,43 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>EZEZ</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>44331122</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11223344</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>fdfdd</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>الماشية</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>الأبقار</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ApplicationCode/subscriberlist.xlsx
+++ b/ApplicationCode/subscriberlist.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1496,6 +1496,80 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>EEEF</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FFDF</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>11223344</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11223344</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>efe</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>الماشية</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>الأبقار</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TJT</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FDDF</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>11223344</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11223344</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>DDZ</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>الماشية</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>الأغنام</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ApplicationCode/subscriberlist.xlsx
+++ b/ApplicationCode/subscriberlist.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:G3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,136 +421,35 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="0">
-      <c r="A0" t="inlineStr">
-        <is>
-          <t>naoures</t>
-        </is>
-      </c>
-      <c r="B0" t="inlineStr">
-        <is>
-          <t>bzeouich</t>
-        </is>
-      </c>
-      <c r="C0" t="inlineStr">
-        <is>
-          <t>14034110</t>
-        </is>
-      </c>
-      <c r="D0" t="inlineStr">
-        <is>
-          <t>97944447</t>
-        </is>
-      </c>
-      <c r="E0" t="inlineStr">
-        <is>
-          <t>MOKNINE</t>
-        </is>
-      </c>
-      <c r="F0" t="inlineStr">
-        <is>
-          <t>الزياتين</t>
-        </is>
-      </c>
-    </row>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>mohamed</t>
+          <t>ve</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>bzeouich</t>
+          <t>dds</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>04040404</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>97487999</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>MOKNINE</t>
+          <t>GN</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>السقوي</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">hayet </t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>gannouni</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>03030303</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>90909090</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ksar hlel</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>الماشية</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>الأغنام</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>heyet</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ganouni</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>14141414</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>90999099</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ksar hlel</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>الصيد بالأضواء</t>
+          <t>النحل</t>
         </is>
       </c>
     </row>

--- a/ApplicationCode/subscriberlist.xlsx
+++ b/ApplicationCode/subscriberlist.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,38 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fdv</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eve</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>11223344</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11223344</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>LKFFJZ</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>النحل</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ApplicationCode/subscriberlist.xlsx
+++ b/ApplicationCode/subscriberlist.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A0:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,52 +421,94 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="0">
+      <c r="A0" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
+      <c r="B0" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="C0" t="inlineStr">
+        <is>
+          <t>11223344</t>
+        </is>
+      </c>
+      <c r="D0" t="inlineStr">
+        <is>
+          <t>11223344</t>
+        </is>
+      </c>
+      <c r="E0" t="inlineStr">
+        <is>
+          <t>FFG</t>
+        </is>
+      </c>
+      <c r="F0" t="inlineStr">
+        <is>
+          <t>الماشية</t>
+        </is>
+      </c>
+      <c r="G0" t="inlineStr">
+        <is>
+          <t>الأبقار</t>
+        </is>
+      </c>
+    </row>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t xml:space="preserve">: اسم </t>
+          <t>mohamed</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve">: اللقب </t>
+          <t>bzeouich</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> : رقم بطاقة الهوية الوطنية </t>
+          <t>04040404</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve">: رقم الهاتف </t>
+          <t>97487999</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> : المنطقة </t>
+          <t>sousine</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> :النقابات القطاعية</t>
+          <t>الماشية</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>الأبقار</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ge</t>
+          <t>mkezlmkfz</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>errg</t>
+          <t>jfzbjb</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>44332211</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,49 +518,140 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TYHT</t>
+          <t>sousine</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>الزياتين</t>
+          <t>السقوي</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZZ</t>
+          <t>lvkjlkj</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>ekjej</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11223344</t>
+          <t>99887766</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11223344</t>
+          <t>99119911</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FFG</t>
+          <t>ksar hlel</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>الصيد الساحلي</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>elkl</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>;efrne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>33445566</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33445566</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>moknine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>الماشية</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>الأبقار</t>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GRLK</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LKLGE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>44556677</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44556677</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KJEFL</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>الصيد بالأضواء</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>evf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>v;:</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>55667788</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55667788</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EG?ELMK</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>الصيد الساحلي</t>
         </is>
       </c>
     </row>

--- a/ApplicationCode/subscriberlist.xlsx
+++ b/ApplicationCode/subscriberlist.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:G6"/>
+  <dimension ref="A0:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,128 +530,64 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lvkjlkj</t>
+          <t>elkl</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ekjej</t>
+          <t>;efrne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>99887766</t>
+          <t>33445566</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99119911</t>
+          <t>33445566</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ksar hlel</t>
+          <t>moknine</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>الصيد الساحلي</t>
+          <t>الماشية</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>elkl</t>
+          <t>naoures</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>;efrne</t>
+          <t>bzeouich</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>33445566</t>
+          <t>14034112</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33445566</t>
+          <t>97944447</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>moknine</t>
+          <t>MOKNINE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>الماشية</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GRLK</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LKLGE</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>44556677</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>44556677</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KJEFL</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>الصيد بالأضواء</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>evf</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>v;:</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>55667788</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>55667788</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EG?ELMK</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>الصيد الساحلي</t>
+          <t>النحل</t>
         </is>
       </c>
     </row>

--- a/ApplicationCode/subscriberlist.xlsx
+++ b/ApplicationCode/subscriberlist.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,9 +49,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -135,44 +134,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -199,14 +198,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -233,6 +233,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -244,166 +245,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -413,185 +390,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:G4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="0">
-      <c r="A0" t="inlineStr">
-        <is>
-          <t>ZZ</t>
-        </is>
-      </c>
-      <c r="B0" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="C0" t="inlineStr">
-        <is>
-          <t>11223344</t>
-        </is>
-      </c>
-      <c r="D0" t="inlineStr">
-        <is>
-          <t>11223344</t>
-        </is>
-      </c>
-      <c r="E0" t="inlineStr">
-        <is>
-          <t>FFG</t>
-        </is>
-      </c>
-      <c r="F0" t="inlineStr">
-        <is>
-          <t>الماشية</t>
-        </is>
-      </c>
-      <c r="G0" t="inlineStr">
-        <is>
-          <t>الأبقار</t>
-        </is>
-      </c>
-    </row>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>mohamed</t>
+          <t>sdc</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>bzeouich</t>
+          <t>dcs</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>04040404</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>97487999</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>sousine</t>
+          <t>MOKNINE</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>الماشية</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>الأبقار</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>mkezlmkfz</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>jfzbjb</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>44332211</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11223344</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>sousine</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>السقوي</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>elkl</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>;efrne</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>33445566</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>33445566</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>moknine</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>الماشية</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>naoures</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>bzeouich</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>14034112</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>97944447</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>MOKNINE</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>النحل</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ApplicationCode/subscriberlist.xlsx
+++ b/ApplicationCode/subscriberlist.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,6 +430,75 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>cheyma</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>mansour</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14141414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58585858</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MAHDIA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>النحل</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TRG</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1GD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12121212</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22222222</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DFGEG</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>الماشية</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>الأغنام</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
